--- a/data/pliki/zestawienie instalacyjne puste.xlsx
+++ b/data/pliki/zestawienie instalacyjne puste.xlsx
@@ -12,9 +12,11 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Table 1'!$A$1:$M$89</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Table 1'!$A$1:$M$89</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Table 1'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Table 1'!$A$1:$M$89</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Table 1'!$A$1:$M$89</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Table 1'!$A$1:$M$89</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Table 1'!$A$1:$M$89</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -210,7 +212,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -227,7 +229,8 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.3295454545455"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.32954545454546"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.32954545454546"/>
+    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="9.32954545454546"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.32954545454546"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
